--- a/tests/Templates/tLists2_sum.xlsx
+++ b/tests/Templates/tLists2_sum.xlsx
@@ -906,7 +906,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
